--- a/Hackathon_Data_MinorityWomenOwned_2022 withcompany_urls_and_info.xlsx
+++ b/Hackathon_Data_MinorityWomenOwned_2022 withcompany_urls_and_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="403">
   <si>
     <t>dunsNum</t>
   </si>
@@ -73,58 +73,1156 @@
     <t>Arista Business Imaging Solutions, Inc.</t>
   </si>
   <si>
+    <t>EXECUTEAM CORPORATION</t>
+  </si>
+  <si>
+    <t>Premier Oil &amp; Gas Inc</t>
+  </si>
+  <si>
+    <t>Best Capital Funding</t>
+  </si>
+  <si>
+    <t>Vista Industrial Packaging, LLC</t>
+  </si>
+  <si>
+    <t>Bema Electronic Manufacturing, Inc.</t>
+  </si>
+  <si>
+    <t>S&amp;S Quality Meats, LLC</t>
+  </si>
+  <si>
+    <t>Diamond Display Group, Inc.</t>
+  </si>
+  <si>
+    <t>Gordon Document Products, Inc.</t>
+  </si>
+  <si>
+    <t>Link Cross Inc</t>
+  </si>
+  <si>
+    <t>Republica, LLC</t>
+  </si>
+  <si>
+    <t>Alumawall, Inc.</t>
+  </si>
+  <si>
+    <t>Magnolia River Services, Inc.</t>
+  </si>
+  <si>
+    <t>COGNITIVE MEDICAL SYSTEMS, INC.</t>
+  </si>
+  <si>
+    <t>Lavelle &amp; Finn LLP</t>
+  </si>
+  <si>
+    <t>Skillnet Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>Luecke Distributing Co., Inc.</t>
+  </si>
+  <si>
+    <t>Bob Richards, Inc</t>
+  </si>
+  <si>
+    <t>Carbon 38, Inc.</t>
+  </si>
+  <si>
+    <t>Louis T. Ollesheimer &amp; Son, Inc.</t>
+  </si>
+  <si>
+    <t>Advantagene, Inc.</t>
+  </si>
+  <si>
+    <t>Albrecht, Inc.</t>
+  </si>
+  <si>
+    <t>King Business Interiors, Inc.</t>
+  </si>
+  <si>
+    <t>Fertitta Capital Inc.</t>
+  </si>
+  <si>
+    <t>Mid-Coast Electric Supply, Inc.</t>
+  </si>
+  <si>
+    <t>Banks Finley White &amp; Co</t>
+  </si>
+  <si>
+    <t>Distilled Resources Inc</t>
+  </si>
+  <si>
+    <t>E&amp;K, LLC</t>
+  </si>
+  <si>
+    <t>Medefil, Inc.</t>
+  </si>
+  <si>
+    <t>L.P.M. Holding Company, Inc.</t>
+  </si>
+  <si>
+    <t>Granello Bakery, Inc.</t>
+  </si>
+  <si>
+    <t>HAMILTON THORNE, INC.</t>
+  </si>
+  <si>
+    <t>Beta Hatch Inc.</t>
+  </si>
+  <si>
+    <t>Inclin, Inc</t>
+  </si>
+  <si>
+    <t>Cherry Hill Auto, Inc</t>
+  </si>
+  <si>
+    <t>Msol Inc.</t>
+  </si>
+  <si>
+    <t>Regency Hotel Management Limited</t>
+  </si>
+  <si>
+    <t>Micro-Data Systems Inc.</t>
+  </si>
+  <si>
+    <t>BENCHMARK TITLE AGENCY, LLC</t>
+  </si>
+  <si>
+    <t>Allied Plastic Supply, LLC</t>
+  </si>
+  <si>
+    <t>Frontida Biopharm, Inc.</t>
+  </si>
+  <si>
+    <t>Base One Technologies Inc.</t>
+  </si>
+  <si>
+    <t>Cal Coast Credit Service, Inc.</t>
+  </si>
+  <si>
+    <t>Towerwall, Inc.</t>
+  </si>
+  <si>
+    <t>SAVILINX, LLC</t>
+  </si>
+  <si>
+    <t>Buzzballz, LLC</t>
+  </si>
+  <si>
+    <t>Atma Hotel Group, Inc.</t>
+  </si>
+  <si>
+    <t>PMC Smart Solutions LLC</t>
+  </si>
+  <si>
+    <t>Stand Energy Corporation</t>
+  </si>
+  <si>
+    <t>Prime Ae Group, Inc</t>
+  </si>
+  <si>
     <t>Dallas</t>
   </si>
   <si>
     <t>Calaveras</t>
   </si>
   <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Eddy</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
+    <t>Cobb</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Miami-Dade</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Aiken</t>
+  </si>
+  <si>
+    <t>Oakland</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Du Page</t>
+  </si>
+  <si>
+    <t>Worcester</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Chelan</t>
+  </si>
+  <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>Camden</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>Middlesex</t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>Westchester</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Sonoma</t>
+  </si>
+  <si>
+    <t>Cumberland</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
     <t>1820 REGAL ROW STE 200</t>
   </si>
   <si>
     <t>746 FRENCH GULCH RD</t>
   </si>
   <si>
+    <t>2401 FTN VIEW DR STE 800</t>
+  </si>
+  <si>
+    <t>422 W MAIN ST</t>
+  </si>
+  <si>
+    <t>21540 PLUMMER ST STE A</t>
+  </si>
+  <si>
+    <t>4700 FISHER RD</t>
+  </si>
+  <si>
+    <t>4545 CUSHING PKWY</t>
+  </si>
+  <si>
+    <t>4700 W HIGHWAY 50</t>
+  </si>
+  <si>
+    <t>2637 SUMMIT AVE 303</t>
+  </si>
+  <si>
+    <t>2250 CORP PLZ PKWY SE # 102</t>
+  </si>
+  <si>
+    <t>BLDG C PIER 50</t>
+  </si>
+  <si>
+    <t>2153 CORAL WAY FL 5</t>
+  </si>
+  <si>
+    <t>1701 S 7TH ST STE 9</t>
+  </si>
+  <si>
+    <t>408 BANK ST NE</t>
+  </si>
+  <si>
+    <t>9444 WAPLES ST STE 200</t>
+  </si>
+  <si>
+    <t>29 BRITISH AMERICAN BLVD</t>
+  </si>
+  <si>
+    <t>1901 S BASCOM AVE STE 600</t>
+  </si>
+  <si>
+    <t>432 E OUTER RD</t>
+  </si>
+  <si>
+    <t>5512 JEFFERSON DAVIS HWY</t>
+  </si>
+  <si>
+    <t>10000 WASH BLVD STE 800</t>
+  </si>
+  <si>
+    <t>605 E 12 MILE RD</t>
+  </si>
+  <si>
+    <t>117 KENDRICK ST STE 450</t>
+  </si>
+  <si>
+    <t>1040 TECHNE CENTER DR</t>
+  </si>
+  <si>
+    <t>1400 GOODALE BLVD STE 102</t>
+  </si>
+  <si>
+    <t>10801 W CHARLESTON BLVD</t>
+  </si>
+  <si>
+    <t>1801 STOLZ ST</t>
+  </si>
+  <si>
+    <t>617 37TH ST S</t>
+  </si>
+  <si>
+    <t>134 N 3300 E</t>
+  </si>
+  <si>
+    <t>765 N TARGET RANGE RD</t>
+  </si>
+  <si>
+    <t>250 WINDY POINT DR</t>
+  </si>
+  <si>
+    <t>580 MAIN ST STE 1</t>
+  </si>
+  <si>
+    <t>5045 W MARDON AVE</t>
+  </si>
+  <si>
+    <t>100 CUMMINGS CTR STE 465E</t>
+  </si>
+  <si>
+    <t>12611 PROWELL ST</t>
+  </si>
+  <si>
+    <t>2655 CAMPUS DR STE 100</t>
+  </si>
+  <si>
+    <t>1810 MARLTON PIKE W</t>
+  </si>
+  <si>
+    <t>800 MARYLAND AVE NE</t>
+  </si>
+  <si>
+    <t>219 LITTLETON RD</t>
+  </si>
+  <si>
+    <t>71 MAIN ST</t>
+  </si>
+  <si>
+    <t>222 BLOOMINGDALE RD</t>
+  </si>
+  <si>
+    <t>10828 SHADY TRL</t>
+  </si>
+  <si>
+    <t>1100 ORTHODOX ST</t>
+  </si>
+  <si>
+    <t>30 CHURCH ST STE 2B</t>
+  </si>
+  <si>
+    <t>1142 STATE FARM DR</t>
+  </si>
+  <si>
+    <t>615 CONCORD ST</t>
+  </si>
+  <si>
+    <t>74 ORION ST STE 2</t>
+  </si>
+  <si>
+    <t>2114 MCDANIEL DR</t>
+  </si>
+  <si>
+    <t>6110 FALCONBRIDGE RD # 101</t>
+  </si>
+  <si>
+    <t>9825 KENWOOD RD STE 300</t>
+  </si>
+  <si>
+    <t>1077 CELESTIAL ST STE 110</t>
+  </si>
+  <si>
+    <t>5521 RES PK DR STE 300</t>
+  </si>
+  <si>
     <t>DALLAS</t>
   </si>
   <si>
     <t>MURPHYS</t>
   </si>
   <si>
+    <t>HOUSTON</t>
+  </si>
+  <si>
+    <t>ARTESIA</t>
+  </si>
+  <si>
+    <t>CHATSWORTH</t>
+  </si>
+  <si>
+    <t>COLUMBUS</t>
+  </si>
+  <si>
+    <t>FREMONT</t>
+  </si>
+  <si>
+    <t>EMPORIA</t>
+  </si>
+  <si>
+    <t>PLANO</t>
+  </si>
+  <si>
+    <t>SMYRNA</t>
+  </si>
+  <si>
+    <t>SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>CORAL GABLES</t>
+  </si>
+  <si>
+    <t>SAN JOSE</t>
+  </si>
+  <si>
+    <t>DECATUR</t>
+  </si>
+  <si>
+    <t>SAN DIEGO</t>
+  </si>
+  <si>
+    <t>LATHAM</t>
+  </si>
+  <si>
+    <t>CAMPBELL</t>
+  </si>
+  <si>
+    <t>POPLAR BLUFF</t>
+  </si>
+  <si>
+    <t>BEECH ISLAND</t>
+  </si>
+  <si>
+    <t>CULVER CITY</t>
+  </si>
+  <si>
+    <t>MADISON HEIGHTS</t>
+  </si>
+  <si>
+    <t>NEEDHAM HEIGHTS</t>
+  </si>
+  <si>
+    <t>MILFORD</t>
+  </si>
+  <si>
+    <t>LAS VEGAS</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>BIRMINGHAM</t>
+  </si>
+  <si>
+    <t>RIGBY</t>
+  </si>
+  <si>
+    <t>NOGALES</t>
+  </si>
+  <si>
+    <t>GLENDALE HEIGHTS</t>
+  </si>
+  <si>
+    <t>BOLTON</t>
+  </si>
+  <si>
+    <t>BEVERLY</t>
+  </si>
+  <si>
+    <t>LEAVENWORTH</t>
+  </si>
+  <si>
+    <t>SAN MATEO</t>
+  </si>
+  <si>
+    <t>CHERRY HILL</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>WESTFORD</t>
+  </si>
+  <si>
+    <t>HOLMDEL</t>
+  </si>
+  <si>
+    <t>WHITE PLAINS</t>
+  </si>
+  <si>
+    <t>PHILADELPHIA</t>
+  </si>
+  <si>
+    <t>NEW ROCHELLE</t>
+  </si>
+  <si>
+    <t>SANTA ROSA</t>
+  </si>
+  <si>
+    <t>FRAMINGHAM</t>
+  </si>
+  <si>
+    <t>BRUNSWICK</t>
+  </si>
+  <si>
+    <t>CARROLLTON</t>
+  </si>
+  <si>
+    <t>CHAPEL HILL</t>
+  </si>
+  <si>
+    <t>BLUE ASH</t>
+  </si>
+  <si>
+    <t>CINCINNATI</t>
+  </si>
+  <si>
+    <t>BALTIMORE</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
     <t>CA</t>
   </si>
   <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
     <t>KEN EYSEL - CEO</t>
   </si>
   <si>
+    <t>JOHANNA M FLOURNOY - PRESIDENT</t>
+  </si>
+  <si>
+    <t>ROSALIE JONES - PRESIDENT</t>
+  </si>
+  <si>
+    <t>MICHAEL OMAR YATES - CHIEF EXECUTIVE OFFICER</t>
+  </si>
+  <si>
+    <t>MARTHA J CAHALL - MEMBER</t>
+  </si>
+  <si>
+    <t>HELEN KWONG - PRESIDENT</t>
+  </si>
+  <si>
+    <t>DAN SMOOTS - MEMBER</t>
+  </si>
+  <si>
+    <t>TINA MCMILLAN SWEAT - PRESIDENT</t>
+  </si>
+  <si>
+    <t>JOHN C GORDON - CEO</t>
+  </si>
+  <si>
+    <t>MARY C MCMILLAN - CHIEF EXECUTIVE OFFICER</t>
+  </si>
+  <si>
+    <t>JORGE A PLASENCIA - CHAIRMAN OF THE BOARD</t>
+  </si>
+  <si>
+    <t>DAVID M WARDA - PRESIDENT</t>
+  </si>
+  <si>
+    <t>KIMBERLY T HOFF - PRES-CEO</t>
+  </si>
+  <si>
+    <t>CHRISTINA MURPHY - CEO</t>
+  </si>
+  <si>
+    <t>MARTIN FINN - PARTNER</t>
+  </si>
+  <si>
+    <t>VIDYA DAMLE - CEO</t>
+  </si>
+  <si>
+    <t>MARY E ARMES - PRESIDENT</t>
+  </si>
+  <si>
+    <t>BOB RICHARD JR - PRESIDENT</t>
+  </si>
+  <si>
+    <t>KATIE JOHNSON - CHIEF EXECUTIVE OFFICER</t>
+  </si>
+  <si>
+    <t>BARBARA OLLESHEIMER - TREAS</t>
+  </si>
+  <si>
+    <t>ESTUARDO AGUILAR CORDOVA - PRESIDENT</t>
+  </si>
+  <si>
+    <t>VERA MUZZILLO - CEO</t>
+  </si>
+  <si>
+    <t>DARLA J KING - PRESIDENT</t>
+  </si>
+  <si>
+    <t>NAKISA BIDARIAN - CHIEF EXECUTIVE OFFICER</t>
+  </si>
+  <si>
+    <t>STEVE BARKER - PRES</t>
+  </si>
+  <si>
+    <t>JAMES C WHITE - OWNER</t>
+  </si>
+  <si>
+    <t>GRAY OTTLEY - CEO</t>
+  </si>
+  <si>
+    <t>LUIS MORENO - MANAGING MEMBER</t>
+  </si>
+  <si>
+    <t>PRADEEP AGGARWAL - PRES-CEO</t>
+  </si>
+  <si>
+    <t>ROBERT J WATSON - PRES-CEO</t>
+  </si>
+  <si>
+    <t>LAURIE STEED - PRES</t>
+  </si>
+  <si>
+    <t>DAVID WOLF - CEO</t>
+  </si>
+  <si>
+    <t>VIRGINIA EMERY - CHIEF EXECUTIVE OFFICER</t>
+  </si>
+  <si>
+    <t>TAYLOR KILFOIL - CEO</t>
+  </si>
+  <si>
+    <t>DAVID KRUPNICK - PRESIDENT</t>
+  </si>
+  <si>
+    <t>AMY F WRIGHT - CHIEF EXECUTIVE OFFICER</t>
+  </si>
+  <si>
+    <t>ELIZABETH GILDROY - PRESIDENT</t>
+  </si>
+  <si>
+    <t>MICHELE PLENZO - CHIEF EXECUTIVE OFFICER</t>
+  </si>
+  <si>
+    <t>THOMAS N DECARO - MANAGING MEMBER</t>
+  </si>
+  <si>
+    <t>JAMES D GAY - CEO</t>
+  </si>
+  <si>
+    <t>SONG LI - CEO</t>
+  </si>
+  <si>
+    <t>LIZA ZANERI - CHIEF EXECUTIVE OFFICER</t>
+  </si>
+  <si>
+    <t>MICHELLE DROLET - CHIEF EXECUTIVE OFFICER</t>
+  </si>
+  <si>
+    <t>HEATHER BLEASE - CHIEF EXECUTIVE OFFICER</t>
+  </si>
+  <si>
+    <t>MERRILEE A KICK - PRESIDENT</t>
+  </si>
+  <si>
+    <t>MANISH D ATMA - PRESIDENT</t>
+  </si>
+  <si>
+    <t>LISA JENNINGS - PRESIDENT</t>
+  </si>
+  <si>
+    <t>MATTH TOEBBEN - CHAIRMAN</t>
+  </si>
+  <si>
+    <t>KUMAR BUVANENDARAN - PRES</t>
+  </si>
+  <si>
     <t>David Hays - Chief Financial Officer</t>
   </si>
   <si>
     <t>Lorrie Eysel - President</t>
   </si>
   <si>
+    <t>George Flournoy - Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Suju Kwong - Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Jay Woerz - Vp Sales &amp; Marketing</t>
+  </si>
+  <si>
+    <t>Doug Fisher - Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Luis Casamayor - President</t>
+  </si>
+  <si>
+    <t>Doug Burke - President</t>
+  </si>
+  <si>
+    <t>Mary Ibbetson - Chief Operating Officer</t>
+  </si>
+  <si>
+    <t>Saroj Damle - President</t>
+  </si>
+  <si>
+    <t>James Ollesheimer - President</t>
+  </si>
+  <si>
+    <t>Brian Smith - President</t>
+  </si>
+  <si>
+    <t>Dave King - Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Stephen Barker - President</t>
+  </si>
+  <si>
+    <t>Philip Ottley - Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Tim Sheehan - Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Diarmaid Douglas Hamilt - Treasurer</t>
+  </si>
+  <si>
+    <t>Dirk Thye - Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Todd Barnes - Chief Operating Officer</t>
+  </si>
+  <si>
+    <t>C Gildroy - Treasurer</t>
+  </si>
+  <si>
+    <t>Dan Plenzo - President</t>
+  </si>
+  <si>
+    <t>Frank Labrabera - President</t>
+  </si>
+  <si>
+    <t>Eddie Walker - President</t>
+  </si>
+  <si>
+    <t>Puneet Sapra - Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Matthew Berto - President</t>
+  </si>
+  <si>
+    <t>Maryann Conway - Chief Operating Officer</t>
+  </si>
+  <si>
+    <t>Kim Williams - Chief Operating Officer</t>
+  </si>
+  <si>
+    <t>Judith Phillips - Chief Executive Officer</t>
+  </si>
+  <si>
     <t>Asian</t>
   </si>
   <si>
+    <t>African American</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.cpyi.com/,https://www.cpyi.com/career-opportunities,https://www.cpyi.com/locations;RefWebSites:https://www.linkedin.com/company/cp%26y-inc,https://www.facebook.com/cpyengineering,https://www.dnb.com/business-directory/company-profiles.cpy_inc.d3f8766c48e3701560244592f8a542f5.html,https://www.crunchbase.com/organization/cp-y-inc,https://twitter.com/cpyengineering,https://members.acecva.org/member-directory/Details/cp-y-inc-752192,https://www.bloomberg.com/profile/company/4877715Z:US,https://web.sachamber.org/Environmental-Consultants/CPY-Inc-5461</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://pitchbook.com/profiles/company/231167-08,https://www.bloomberg.com/profile/company/0178566Z:US,https://rocketreach.co/arista-business-imaging-solutions-profile_b5d7c295f42e3e75,https://www.visualvisitor.com/companies/5469506/arista-business-imaging-solutions,https://www.industryanalysts.com/sharp-acquires-arista-business-imaging-solutions/,https://www.yelp.com/biz/arista-business-imaging-solutions-concord-3,https://www.therecycler.com/posts/sharp-acquires-arista-business-imaging-solutions/,https://www.manta.com/c/mmnmn2k/arista-business-imaging-solutions,https://www.owler.com/company/aristadoes</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.executeam.com/,http://executeamresources.com/,https://www.executeam.com/;RefWebSites:https://www.linkedin.com/company/executeam,https://www.crunchbase.com/organization/executeam,https://www.dnb.com/business-directory/company-profiles.executeam_corporation.63d472f1cfc50f84fe2d11e564d403be.html,https://www.zoominfo.com/c/executeam-staffing/18219610,https://www.glassdoor.co.in/Overview/Working-at-ExecuTeam-Staffing-EI_IE956015.11,29.htm,https://www.bloomberg.com/profile/company/0831021D:US,https://www.facebook.com/ExecuTeam/,https://pitchbook.com/profiles/company/128924-20</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.dnb.com/business-directory/company-profiles.premier_oil__gas_inc.b5587d21bec694ccd2117cd3a7065421.html,https://www.dnb.com/business-directory/company-profiles.premier_oil__gas_inc.4a2e5e76e630509422f6f92d5e170cdc.html,https://www.bloomberg.com/profile/company/1178047Z:LN,https://www.dandb.com/businessdirectory/premieroilgasinc-artesia-nm-13908573.html,https://opencorporates.com/companies/us_tx/0145675800</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://bestcapfunding.com/,https://www.linkedin.com/company/best-capital-fundingcorporate,https://www.linkedin.com/in/mike-yates-4919161b,https://www.bestcaprancho.com/,https://www.crunchbase.com/organization/best-capital-funding,https://www.dnb.com/business-directory/company-profiles.best_capital_funding.2af2f617369dd0e964dc3cd56e87a178.html,https://www.zoominfo.com/c/best-capital-funding/365428732,http://bestcapfunding.com.php72-37.lan3-1.websitetestlink.com/about-us,https://entp.hud.gov/sfnw/public/lend_dba_info.cfm%3FRequestTimeout%3D500%26lendlist%3DBEST%2520CAPITAL%2520FUNDING%26lender_type%3Dt2,https://www.bankrate.com/mortgages/reviews/best-capital-funding/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://vistaindustrialpackaging.com/,http://vistaindustrialpackaging.com/about/locations/,http://vistaindustrialpackaging.com/about/,http://vistaindustrialpackaging.com/about/careers/,http://vistaindustrialpackaging.com/contact/;RefWebSites:https://www.linkedin.com/company/vista-industrial-packaging-inc.,https://www.dnb.com/business-directory/company-profiles.vista_industrial_packaging_llc.6e9124d765a161e80870588c7e31f35d.html,https://www.bloomberg.com/profile/company/0444874D:US,https://safer.fmcsa.dot.gov/query.asp%3Fsearchtype%3DANY%26query_type%3DqueryCarrierSnapshot%26query_param%3DUSDOT%26query_string%3D1266203,https://www.buzzfile.com/business/Vista-Packaging.And.Logistics-800-454-6117,https://opencorporates.com/companies/us_oh/670954,https://www.usaopps.com/government_contractors/contractor-5857470-Vista-Industrial-Packagin.htm</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.dnb.com/business-directory/company-profiles.bema_electronic_manufacturing_inc.41252f45f045f3daf25b3b8f77d010d7.html,https://www.bloomberg.com/profile/company/4931528Z:US,https://cage.report/DUNS/147470707,https://govtribe.com/vendors/bema-electronic-manufacturing-inc-dot-3dpb9</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.dnb.com/business-directory/company-profiles.ss_quality_meats_llc.85c49de5f98ec75b6d91744a443e8fab.html,https://www.bloomberg.com/profile/company/0397379D:US,https://www.dandb.com/businessdirectory/ssqualitymeatsllc-emporia-ks-1457547.html,https://www.kansasbids.us/kansas-contractors/contractor-5427814-S-S-QUALITY-MEATS-LLC.htm,https://www.fsis.usda.gov/inspection/fsis-inspected-establishments/ss-quality-meats,https://www.governmentcontracts.us/government-contractors/company-BSG1980948-s-s-quality-Emporia-KS.htm,https://www.buzzfile.com/business/Fanestil-Meats-620-342-6354,https://opencorporates.com/companies/us_ks/2501294,https://www.usaopps.com/government_contractors/contractor-5427814-S-S-QUALITY-MEATS-LLC.htm,https://opengovus.com/sam-entity/JEEEV5EXTLC3</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.diamonddisplaygroup.com/;RefWebSites:https://www.linkedin.com/company/diamond-display-group,https://www.crunchbase.com/organization/diamond-display-group,https://www.zoominfo.com/c/diamond-display-group-inc/347571666,https://www.bloomberg.com/profile/company/0443132D:US,http://ddg-corp.com/,https://mrcheckout.net/diamond-display-group/,https://www.manta.com/c/mmlc513/diamond-display-group,https://www.mapquest.com/us/texas/diamond-display-group-inc-369509238</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.gdp.com/,https://www.linkedin.com/company/gordon-document-products,https://www.linkedin.com/in/john-c-gordon-88665a11,https://www.crunchbase.com/organization/gordon-document-products,https://www.dnb.com/business-directory/company-profiles.gordon_document_products_inc.7910b4497fcb47c023ff707b2b541d2e.html,https://www.zoominfo.com/c/gordon-document-products-inc/50075037,https://www.bloomberg.com/profile/company/0004077D:US,https://www.bbb.org/us/ga/marietta/profile/copier/gordon-document-products-inc-0443-4190,https://www.glassdoor.co.in/Overview/Working-at-Gordon-Document-Products-EI_IE337525.11,35.htm,https://www.facebook.com/GordonDocumentProducts/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.dnb.com/business-directory/company-profiles.link_cross_inc.47ef9251ea572bfd1ac7c81c3a949aec.html</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://republicahavas.com/,http://republicahavas.com/,https://republicahavas.com/;RefWebSites:https://www.dnb.com/business-directory/company-profiles.republica_llc.1df56f997cd328820943ad591b7ab41c.html,https://rocketreach.co/republica-llc-profile_b5cdadbcf42e0b78,https://www.crunchbase.com/organization/republica-llc,https://builtin.com/company/republica-llc</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:http://www.alumawall.com/,https://www.alumawall.com/,https://www.alumawall.com/products/,https://www.alumawall.com/contact/,https://www.alumawall.com/company/,https://www.alumawall.com/systems/;RefWebSites:https://www.linkedin.com/company/alumawall,https://www.crunchbase.com/organization/alumawall-inc,https://www.bloomberg.com/profile/company/4919944Z:US,https://www.aecinfo.com/1/company/04/97/92/company_1.html,https://www.thebluebook.com/iProView/801950/alumawall-inc/manufacturers/,https://www.zoominfo.com/c/alumawall-inc/353615118,https://www.industrynet.com/listing/391374/alumawall-inc</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.linkedin.com/company/magnolia-river-services-inc,https://www.dnb.com/business-directory/company-profiles.magnolia_river_services_inc.06568b8ab80f724b3f2b389f557ddb4e.html,https://www.esri.com/partners/magnolia-river-servi-a2T70000000TNYHEA4,https://texasgas.com/directory/magnolia-river-services-inc/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:http://cognitivemedicalsystems.com/,https://cognitivemedicalsystems.com/,https://cognitivemedicalsystems.com/careers/,https://cognitivemedicalsystems.com/about/;RefWebSites:https://www.linkedin.com/company/cognitivemedicalsystems,https://www.crunchbase.com/organization/cognitive-medical-systems,https://www.zoominfo.com/c/cognitive-medical-systems-inc/368366708,https://www.glassdoor.co.in/Overview/Working-at-Cognitive-Medical-Systems-EI_IE957268.11,36.htm,https://govtribe.com/vendors/cognitive-medical-systems-inc-dot-62v66,https://www.bloomberg.com/profile/company/0833152D:US,https://www.visualvisitor.com/companies/3119382/cognitive-medical-systems-inc.,https://www.inc.com/profile/cognitive-medical-systems</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.lavelleandfinn.com/,https://www.linkedin.com/company/lavelle-%26-finn-llp,https://www.bizjournals.com/albany/news/2021/10/22/lavelle-and-finn-lawsuit.html,https://www.facebook.com/LavelleandFinn/,https://www.facebook.com/LavelleandFinn/photos/,https://www.dnb.com/business-directory/company-profiles.lavelle__finn_llp.44c6379cb26401327b6ea23d9c1ab54b.html,https://profiles.superlawyers.com/new-york/latham/lawfirm/lavelle-and-finn-llp/e530358f-1fb3-47be-a513-7d458e6672d9.html,https://business.bethlehemchamber.com/list/member/lavelle-finn-llp-1365</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.skillnetinc.com/en/,https://in.linkedin.com/company/skillnet-solutions-inc,https://www.glassdoor.co.in/Reviews/Skillnet-Solutions-Reviews-E265521.htm,https://www.facebook.com/skillnetinc/,https://www.bloomberg.com/profile/company/3920572Z:US,https://www.ambitionbox.com/reviews/skillnet-solutions-reviews,https://www.zoominfo.com/c/skillnet-solutions-inc/63619282,https://www.zaubacorp.com/company/SKILLNET-SOLUTIONS-INDIA-PRIVATE-LIMITED/U72200MH2000PTC129910</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.dnb.com/business-directory/company-profiles.luecke_distributing_co_inc.b6b62ef53651f15c8c1810abb131ddce.html,https://www.linkedin.com/company/luecke-distributing-co-inc,https://www.bloomberg.com/profile/company/0405278D:US,https://www.dandb.com/businessdirectory/lueckedistributingco.inc.-poplarbluff-mo-8846504.html,https://start.cortera.com/company/research/k3p1rss1k/luecke-distributing-co-inc/,https://opencorporates.com/companies/us_mo/00171213,https://foursquare.com/v/luecke-distributing-company/4e692d651838f93d2c8d3c5a,https://www.b2byellowpages.com/company-information/46701165-luecke-distributing-co-inc.html,https://www.buzzfile.com/business/Luecke-Distributing-Co.,-Inc.-573-785-1451</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.bobrichardsjewelers.com/;RefWebSites:https://www.linkedin.com/in/robertdrichards,https://www.crunchbase.com/person/robert-richards,https://twitter.com/bob_richards,https://www.bloomberg.com/profile/person/17233602,https://www.youtube.com/watch%3Fv%3D2ca874kxzak,https://www.dnb.com/business-directory/company-profiles.bob_richards_automotive_llc.e92a071d6c2072377ae75f51e4611b58.html,https://www.facebook.com/BobRichardsJewelersTN/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://carbon38.com/,https://carbon38.com/collections/leggings,https://carbon38.com/collections/sale,https://carbon38.com/collections/shop-all,https://carbon38.com/collections/new-arrivals;RefWebSites:https://www.linkedin.com/company/carbon38,https://www.crunchbase.com/organization/carbon38,https://www.bloomberg.com/profile/company/1500596D:US,https://www.dnb.com/business-directory/company-profiles.carbon_38_inc.8295174ac0d923f964475eb96038341a.html,https://www.zoominfo.com/c/carbon38/358152384,https://www.facebook.com/Carbon38/,https://www.instagram.com/carbon38/%3Fhl%3Den</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://srsdistribution.com/en/markets/our-brands/louis-t.-ollesheimer--son/,https://srsdistribution.com/en/markets/our-brands/louis-t.-ollesheimer--son/louis-t.-ollesheimer--son---indianapolis/,https://www.dnb.com/business-directory/company-profiles.louis_t_ollesheimer__son_inc.cb51c58f3cb4aedb.html,https://www.linkedin.com/company/louis-t-ollesheimer-%26-son,https://www.facebook.com/LTOMadisonHeights/,https://www.mdm.com/news/operations/mergers-acquisitions/srs-distribution-acquires-louis-t-ollesheimer-son/,https://www.zoominfo.com/c/louis-t-ollesheimer-son-inc/70765124,https://lbmjournal.com/srs-distribution-acquires-louis-t-ollesheimer-son-inc/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.bloomberg.com/profile/company/8375130Z:US,https://www.facebook.com/pages/category/Biotechnology-Company/Advantagene-Inc-150142965046301/,https://www.sbir.gov/sbc/advantagene-inc,https://www.globenewswire.com/news-release/2018/04/27/1488920/0/en/Advantagene-Announces-Clinical-Trial-Collaboration.html</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://albrechtinc.com/,https://albrechtinc.com/,https://albrechtinc.com/contact/,https://albrechtinc.com/available-retail-property/;RefWebSites:https://www.linkedin.com/company/albrecht-incorporated,https://www.linkedin.com/in/joe-albrecht-68306b4,https://www.zoominfo.com/c/albrecht-inc/3101177,https://www.crunchbase.com/organization/albrecht-incorporated,https://www.dnb.com/business-directory/company-profiles.albrecht_inc.54f4ba2cc8cfcdd71110edb98e5c9b3a.html,https://www.dnb.com/business-directory/company-profiles.albrecht_inc.177b368eda1756cf6d639d774b47e643.html,https://www.downtownakron.com/go/albrecht-incorporated,https://www.bloomberg.com/profile/company/544317Z:US</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.kbiinc.com/,https://www.linkedin.com/company/king-business-interiors,https://www.facebook.com/kingbusinessinteriors/,https://web.columbus.org/Furniture-Stores/KING-Business-Interiors-Inc-904,https://www.bbb.org/us/oh/columbus/profile/office-furniture/king-business-interiors-inc-0302-42001353,https://www.zoominfo.com/c/king-business-interiors/347252119,https://www.crunchbase.com/organization/king-business-interiors,https://www.instagram.com/kingbusinessinteriors/%3Fhl%3Den</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.crunchbase.com/organization/fertitta-capital,https://pitchbook.com/profiles/investor/180424-18,https://www.bloomberg.com/profile/company/1665306D:US,https://www.dnb.com/business-directory/company-profiles.fertitta_capital_inc.d4984877dabb977d81c6e993dc9816e8.html,https://www.cbinsights.com/investor/fertitta-capital,https://unicorn-nest.com/funds/fertitta-capital/,https://www.prnewswire.com/news-releases/fertitta-capital-launches-with-500-million-300448601.html,https://www.zoominfo.com/c/fertitta-capital/403411506,https://www.signalhire.com/companies/fertitta-capital</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.mcesi.com/,https://www.linkedin.com/company/mcesi,https://www.facebook.com/midcoastelectricsupply/,https://www.dnb.com/business-directory/company-profiles.mid-coast_electric_supply_inc.f337ea5e50ac3fade9a63e3a9fdb9364.html,https://www.zoominfo.com/c/mid--coast-electric-supply-inc/76219675,https://www.bloomberg.com/profile/company/0109559D:US,https://www.mc-mc.com/resources/news/reynolds-acquires-mid-coast,https://www.facetcorp.com/success-stories/mid-coast-electric/,https://growjo.com/company/Mid-Coast_Electric_Supply</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://bfwcpa.com/,https://bfwcpa.com/our-team/,https://www.linkedin.com/company/banks-finley-white-and-co-cpa,https://www.dnb.com/business-directory/company-profiles.banks_finley_white__co.ab66adc98f8260632e35087f708f59d8.html,https://www.crunchbase.com/organization/banks-finley-white-co,https://spendefy.com/listings/banks-finley-white-co/,https://clutch.co/profile/banks-finley-white-co,https://www.visualvisitor.com/companies/1556619/banks-finley-white-and-co-cpa,https://www.bloomberg.com/profile/company/0060173D:US</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.linkedin.com/company/distilled-resources-inc-,https://waytogoidaho.com/about/,https://www.dnb.com/business-directory/company-profiles.distilled_resources_inc.d4605dcb5cf7f451.html,https://www.instagram.com/distilledresources/%3Fhl%3Den,https://www.zoominfo.com/c/distilled-resources-inc/41487120,https://www.visualvisitor.com/companies/3596958/distilled-resources-inc.,https://rocketreach.co/distilled-resources-inc-profile_b5e10e96f42e6a0f,https://www.konaequity.com/company/distilled-resources-inc-4391315418/,https://www.industrynet.com/listing/478573/distilled-resources-inc,https://www.mapquest.com/us/idaho/distilled-resources-inc-10197498</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://e-kco.com/;RefWebSites:https://www.edskyungshin.com/,https://www.edskyungshin.com/who-we-are/,https://www.dnb.com/business-directory/company-profiles.ek_llc.84875dc652c64ecf3e24108c947d6877.html,https://www.zoominfo.com/c/e-k-llc/455119864,https://panjiva.com/E-K-Llc/103288519,https://www.manta.com/c/mhppgyj/e-k-llc</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.medefilinc.com/,https://www.medefilinc.com/products/,https://www.medefilinc.com/about-us/,https://www.medefilinc.com/contact/,https://www.medefilinc.com/careers/,http://www.medefilinc.com/;RefWebSites:https://www.linkedin.com/company/medefil,https://www.crunchbase.com/organization/medefil,https://www.dnb.com/business-directory/company-profiles.medefil_inc.4f685de181fd628d7d661e5938eaa74c.html,https://www.accessdata.fda.gov/scripts/cdrh/cfdocs/cfMAUDE/detail.cfm%3Fmdrfoi__id%3D2721120,https://www.bloomberg.com/profile/company/0991857D:US,https://www.govinfo.gov/app/details/USCOURTS-ilnd-1_13-cv-04773,https://www.glassdoor.co.in/Overview/Working-at-Medefil-EI_IE266625.11,18.htm</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.lpmhci.com/,https://www.dnb.com/business-directory/company-profiles.lpm_holding_company_inc.7a9e63645ca6f984.html,https://www.glassdoor.co.in/Overview/Working-at-LPM-Holding-Company-EI_IE367835.11,30.htm,https://rocketreach.co/lpm-holding-company-inc-profile_b5d848a6f42e5383,https://craft.co/lpm-holding-company,https://www.bbb.org/us/ma/maynard/profile/food-service-management/lpm-holding-company-inc-0021-3010</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:http://www.granellobakery.com/,http://granellobakery.com/;RefWebSites:https://www.linkedin.com/company/granello-bakery-inc.,https://www.dnb.com/business-directory/company-profiles.granello_bakery_inc.a8593d71e42ee6932ba9f3bd7d2e9487.html,https://www.zoominfo.com/c/granello-bakery-inc/51694535,https://www.bloomberg.com/profile/company/0528434D:US,https://www.signalhire.com/companies/granello-bakery-inc,https://www.dandb.com/businessdirectory/granellobakeryinc.-lasvegas-nv-27686157.html,https://rocketreach.co/granello-bakery-inc-profile_b4435c32fa05f4d4,https://www.apollo.io/companies/Granello-Bakery--Inc-/54a12a7769702dc12863dd01,https://www.restaurantji.com/nv/las-vegas/granello-bakery-inc-/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.hamiltonthorne.com/,https://www.hamiltonthorne.com/index.php/20-products,https://www.hamiltonthorne.com/index.php/corporate/our-company/contact,https://www.hamiltonthorne.com/index.php/contact-us,https://www.hamiltonthorne.com/index.php/corporate/our-company/careers,http://www.hamiltonthorne.com/,https://www.hamiltonthorne.ltd/,http://www.hamiltonthorne.com/,https://www.hamiltonthorne.ltd/;RefWebSites:https://www.linkedin.com/company/hamilton-thorne-inc-,https://www.dnb.com/business-directory/company-profiles.hamilton_thorne_inc.5fb696f9f03f5ae1d1be829956ab7679.html,https://www.facebook.com/HamiltonThorneInc/,https://www.crunchbase.com/organization/hamilton-thorne,https://finance.yahoo.com/quote/HTL.V/profile/,https://www.cnbc.com/quotes/HTLZF</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://betahatch.com/,https://betahatch.com/products/,https://betahatch.com/press/,https://betahatch.com/innovation/,https://betahatch.com/team/;RefWebSites:https://www.linkedin.com/company/betahatch,https://www.crunchbase.com/organization/beta-hatch,https://pitchbook.com/profiles/company/159190-75,https://techcrunch.com/2021/08/18/mealworm-farming-company-beta-hatch-raises-10m/,https://www.sbir.gov/node/1156577,https://agfundernews.com/exclusive-beta-hatch-raises-9-3m-series-a-funding-to-build-a-dozen-insect-ranches,https://www.zoominfo.com/c/beta-hatch/388910168,https://www.newprotein.net/supplier/beta-hatch-inc</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.inclin.com/,https://www.inclin.com/careers/,https://www.inclin.com/about-inclin/,https://www.inclin.com/contact-inclin/,https://www.inclin.com/about-inclin/leadership-team/,http://inclin.com/;RefWebSites:https://www.linkedin.com/company/inclin-inc,https://www.linkedin.com/company/inclinptyltd,https://www.crunchbase.com/organization/inclin-inc,https://rocketreach.co/inclin-inc-profile_b5c78c13f42e0d7d,https://www.bloomberg.com/profile/company/0992581D:US,https://www.visualvisitor.com/companies/2291975/inclin-inc,https://www.zoominfo.com/c/inclin-inc/347801510</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.cherryhillautosales.net/;RefWebSites:https://www.dnb.com/business-directory/company-profiles.cherry_hill_auto_inc.4c92ea0128a16559ae5ce34b17e9299d.html,https://www.bloomberg.com/profile/company/6746532Z:US,https://www.facebook.com/cherryhillauto/,https://www.yelp.com/biz/cherry-hill-auto-sales-cherry-hill-2,https://www.manta.com/c/mmf8r4j/cherry-hill-auto-inc,https://www.helpmecovid.com/us/4564373_cherry-hill-auto-sales</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.msols.com/en/,https://msoltechnology.com/;RefWebSites:https://www.dnb.com/business-directory/company-profiles.msol_inc.28e15be952bf4def608075d4d7683593.html,https://www.bloomberg.com/profile/company/0037791D:US,https://www.linkedin.com/company/msol-inc.,https://in.linkedin.com/company/msol-technologies-pvt-ltd,https://www.gsaadvantage.gov/ref_text/GS23F008AA/GS23F008AA_online.htm,https://govtribe.com/vendors/msol-inc-dot-macro-solutions-1ybc2,https://pitchbook.com/profiles/company/122591-44</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.regency-mgmt.com/,https://www.regency-mgmt.com/portfolio,https://www.linkedin.com/company/regency-hotel-management,https://www.dnb.com/business-directory/company-profiles.regency_hotel_management_limited.d5cb0bcf2ced62feb626a8365963d7f8.html,https://www.bloomberg.com/profile/company/0597814D:US,https://www.zoominfo.com/c/regency-hotel-management-inc/98878278,https://find-and-update.company-information.service.gov.uk/company/08573411,https://pitchbook.com/profiles/company/144991-18,http://www.regencygroupq.com/regency-hotel-management.html</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://microdatasys.com/,https://www.linkedin.com/company/mds-micro-data-systems,https://www.crunchbase.com/organization/micro-data-systems,https://www.facebook.com/microdatasys/,https://www.glassdoor.co.in/Overview/Working-at-Micro-Data-Systems-EI_IE362131.11,29.htm,https://microdata.com.ph/,https://www.dnb.com/business-directory/company-profiles.micro-data_systems_inc.21f74aeb58faa945cf7ff1a5648e4dc9.html,https://www.zoominfo.com/c/micro-data-systems-inc/68780900,https://www.microd.com/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.benchmarkta.com/,https://www.linkedin.com/company/benchmark-title-agency,https://www.facebook.com/benchmarkta,https://www.hgar.com/affiliate-office/benchmark-title-agency-llc,https://www.zoominfo.com/c/benchmark-title-agency-llc/13717094</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.alliedplastic.org/,https://alliedplastic.shop/,https://www.bloomberg.com/profile/company/6759729Z:US,https://www.zoominfo.com/c/allied-plastic-supply-llc/4098896,https://www.dnb.com/business-directory/company-profiles.allied_plastic_supply_llc.a865c7ef098b3ab89160b309e38b3545.html,https://www.alliedplasticokc.com/,https://www.mapquest.com/us/texas/allied-plastic-supply-9074590,https://www.facebook.com/profile.php%3Fid%3D100063488523777</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://frontidabiopharm.com/;RefWebSites:https://www.linkedin.com/company/frontida-biopharm-inc.,https://www.crunchbase.com/organization/frontida-biopharm,https://www.dnb.com/business-directory/company-profiles.frontida_biopharm_inc.2864527724e5f53a32d95d8e3d95d2fd.html,https://www.prnewswire.com/news-releases/adare-pharma-solutions-acquires-frontida-biopharm-to-expand-leading-cdmo-offerings-301435235.html,https://www.biospace.com/employer/545960/frontida-biopharm-inc-/,https://www.zoominfo.com/c/frontida-biopharm-inc/391935213,https://www.kendoemailapp.com/company/company/16157401,https://www.contractpharma.com/csd/profile/frontida-biopharm-inc-/,https://www.indeed.com/cmp/Frontida-Biopharm,-Inc.</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.base-one.com/,https://www.linkedin.com/company/base-one-technologies-inc-,https://www.bloomberg.com/profile/company/0536991D:US,https://www.dnb.com/business-directory/company-profiles.base_one_technologies_inc.946277851fda6600cd81dcf9803a5e1b.html,https://www.glassdoor.co.in/Overview/Working-at-Base-One-Technologies-EI_IE858486.11,32.htm,https://rocketreach.co/base-one-technologies-inc-profile_b5d77ceef42e3d0b,https://www.crunchbase.com/organization/base-one-technologies,https://www.clearancejobs.com/profiles/795014/base-one-technologies-jobs</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:http://www.calcoastcreditservice.com/,http://www.calcoastcreditservice.com/;RefWebSites:https://www.linkedin.com/company/cal-coast-credit-service,https://www.linkedin.com/in/mattbertoceo,https://www.crunchbase.com/organization/cal-coast-credit-service-inc,https://www.bbb.org/us/ca/santa-rosa/profile/collections-agencies/cal-coast-credit-service-inc-1116-12891,https://www.yelp.com/biz/cal-coast-credit-service-santa-rosa-6,https://www.dnb.com/business-directory/company-profiles.cal_coast_credit_service_inc.12fab6ffcabbd2567d64e2dfa742812e.html,https://www.suethecollector.com/cal-coast-credit-service-inc/,https://www.visualvisitor.com/companies/3464991/cal-coast-credit-service-inc.</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://towerwall.com/,https://towerwall.com/company/,https://towerwall.com/company/contact-us/,https://towerwall.com/company/our-team/,https://towerwall.com/teams/michelle-drolet/,http://towerwall.com/;RefWebSites:https://www.linkedin.com/company/towerwall-inc.,https://www.linkedin.com/in/michelle-drolet-a926b79,https://www.crunchbase.com/organization/towerwall,https://aws.amazon.com/marketplace/seller-profile%3Fid%3Def89293e-bab9-42ff-adf9-a65d696ba470,https://www.zoominfo.com/c/towerwall-inc/343377514,https://www.facebook.com/Towerwall/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://savilinx.com/,https://savilinx.com/contact/,https://savilinx.com/careers/,https://savilinx.com/career-opportunities//,https://savilinx.com/about,http://www.savilinx.com/;RefWebSites:https://www.linkedin.com/company/savilinx,https://www.dnb.com/business-directory/company-profiles.savilinx_llc.a79026e7954e4b828b0859c316ec8b46.html,https://www.crunchbase.com/organization/savilinx,https://www.zoominfo.com/c/savilinx-llc/358728566,https://www.indeed.com/cmp/Savilinx-LLC/reviews%3Ffcountry%3DUS%26floc%3DBrunswick%252C%2BME,https://www.indeed.com/cmp/Savilinx-LLC,https://www.glassdoor.com/Overview/Working-at-SaviLinx-EI_IE1076691.11,19.htm</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.buzzballz.com/,https://www.buzzballz.com/about-us/,https://www.buzzballz.com/products/,https://www.buzzballz.com/contact/,https://www.buzzballz.com/store-locator/;RefWebSites:https://www.linkedin.com/company/buzzballz,https://www.crunchbase.com/organization/buzzballz,https://www.zoominfo.com/c/buzzballz-llc/394959213,https://www.pinterest.com/pin/243757398561192982/,https://www.pinterest.com/pin/95279348345559749/,https://www.iwsc.net/company/profile/1673/buzzballz-llc,https://www.dnb.com/business-directory/company-profiles.buzzballz_llc.eff0d2f2e7cf303622449912366d416f.html</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://atmahotelgroup.com/,https://atmahotelgroup.com/about-us/,https://atmahotelgroup.com/contact-us/,http://atmahotelgroup.com/;RefWebSites:https://www.linkedin.com/company/atma-hotel-group,https://www.linkedin.com/in/manish-atma-4b2b146a,https://www.bloomberg.com/profile/company/0402581D:US,https://www.facebook.com/atmahotelgroup/,https://www.hospitalityonline.com/atmahotelgroup,https://www.hospitalityonline.com/atmahotelgroup/locations,https://www.zoominfo.com/c/atma-hotel-group-inc/347929257,https://www.datanyze.com/companies/atma-hotel-group/347929257</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://pmcsmartsolutions.com/,https://pmcsmartsolutions.com/contact/,https://pmcsmartsolutions.com/join-our-team/,https://pmcsmartsolutions.com/about-us/,https://pmcsmartsolutions.com/news/;RefWebSites:https://www.linkedin.com/company/pmc-smart-solutions,https://www.mpo-mag.com/buyersguide/profile/pmc-smart-solutions-llc-953979/,https://plasticsbusinessmag.com/enews/2020/pmc-smart-solutions-helps-venti-now-manufacture-lifesaving-emergency-ventilators/,https://www.crunchbase.com/organization/pmc-smart-solutions,https://www.indeed.com/q-Pmc-Smart-Solutions-jobs.html,https://www.zoominfo.com/c/pmc-smart-solutions-llc/353646229,https://amendllc.com/news/client/pmc-smart-solutions/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:http://stand-energy.com/,https://www.stand-energy.com/;RefWebSites:https://www.linkedin.com/company/stand-energy-corporation,https://www.dnb.com/business-directory/company-profiles.stand_energy_corporation.615c1b00443725426b1d087e7e5a3f18.html,https://www.bloomberg.com/profile/company/7531948Z:US,https://www.zoominfo.com/c/stand-energy-corporation/36422025,https://www.zoominfo.com/pic/stand-energy-corporation/36422025,https://www.facebook.com/StandEnergyCorp/,https://www.bbb.org/us/oh/cincinnati/profile/gas-distributors/stand-energy-corporation-0292-17459,https://www.visualvisitor.com/companies/3525326/stand-energy-corporation,https://rocketreach.co/stand-energy-corporation-profile_b5c9b6dff42e305b</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.linkedin.com/company/prime-engineering-inc-,https://www.facebook.com/pages/category/Engineering-Service/PRIME-AE-Group-1209672415716310/,https://www.dnb.com/business-directory/company-profiles.prime_ae_group_inc.af1280a9cdfcfea71becbac522745cdd.html,https://www.crunchbase.com/organization/prime-ae-group-inc,https://www.bloomberg.com/profile/company/1270497D:US,https://twitter.com/prime_eng%3Flang%3Den,https://www.bizjournals.com/baltimore/press-release/detail/6566/PRIME-AE-Group-Inc</t>
+  </si>
+  <si>
     <t>CompanyWebSites:https://www.cpyi.com/,https://www.cpyi.com/career-opportunities,https://www.cpyi.com/locations;RefWebSites:https://www.linkedin.com/company/cp%26y-inc,https://www.facebook.com/cpyengineering,https://www.dnb.com/business-directory/company-profiles.cpy_inc.d3f8766c48e3701560244592f8a542f5.html,https://www.crunchbase.com/organization/cp-y-inc,https://twitter.com/cpyengineering,https://members.acecva.org/member-directory/Details/cp-y-inc-752192,https://www.bloomberg.com/profile/company/4877715Z:US,https://web.sachamber.org/EngineersCivil/CPY-Inc-5460</t>
   </si>
   <si>
     <t>CompanyWebSites:;RefWebSites:https://pitchbook.com/profiles/company/231167-08,https://www.bloomberg.com/profile/company/0178566Z:US,https://rocketreach.co/arista-business-imaging-solutions-profile_b5d7c295f42e3e75,https://www.visualvisitor.com/companies/5469506/arista-business-imaging-solutions,https://www.therecycler.com/posts/sharp-acquires-arista-business-imaging-solutions/,https://www.industryanalysts.com/sharp-acquires-arista-business-imaging-solutions/,https://www.yelp.com/biz/arista-business-imaging-solutions-concord-3,https://www.owler.com/company/aristadoes,https://www.manta.com/c/mmnmn2k/arista-business-imaging-solutions</t>
   </si>
   <si>
-    <t>CompanyWebSites:https://www.cpyi.com/,https://www.cpyi.com/career-opportunities,https://www.cpyi.com/locations;RefWebSites:https://www.linkedin.com/company/cp%26y-inc,https://www.facebook.com/cpyengineering,https://www.dnb.com/business-directory/company-profiles.cpy_inc.d3f8766c48e3701560244592f8a542f5.html,https://www.crunchbase.com/organization/cp-y-inc,https://twitter.com/cpyengineering,https://members.acecva.org/member-directory/Details/cp-y-inc-752192,https://www.bloomberg.com/profile/company/4877715Z:US,https://web.sachamber.org/Environmental-Consultants/CPY-Inc-5461</t>
-  </si>
-  <si>
-    <t>CompanyWebSites:;RefWebSites:https://pitchbook.com/profiles/company/231167-08,https://www.bloomberg.com/profile/company/0178566Z:US,https://rocketreach.co/arista-business-imaging-solutions-profile_b5d7c295f42e3e75,https://www.visualvisitor.com/companies/5469506/arista-business-imaging-solutions,https://www.industryanalysts.com/sharp-acquires-arista-business-imaging-solutions/,https://www.yelp.com/biz/arista-business-imaging-solutions-concord-3,https://www.therecycler.com/posts/sharp-acquires-arista-business-imaging-solutions/,https://www.manta.com/c/mmnmn2k/arista-business-imaging-solutions,https://www.owler.com/company/aristadoes</t>
+    <t>CompanyWebSites:;RefWebSites:https://bestcapfunding.com/,https://www.linkedin.com/company/best-capital-fundingcorporate,https://www.linkedin.com/in/mike-yates-4919161b,https://www.bestcaprancho.com/,https://www.crunchbase.com/organization/best-capital-funding,https://www.dnb.com/business-directory/company-profiles.best_capital_funding.2af2f617369dd0e964dc3cd56e87a178.html,https://www.zoominfo.com/c/best-capital-funding/365428732,http://bestcapfunding.com.php72-37.lan3-1.websitetestlink.com/about-us,https://www.bankrate.com/mortgages/reviews/best-capital-funding/,https://www.bbb.org/us/ca/chatsworth/profile/mortgage-banker/best-capital-funding-1216-100118268</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://vistaindustrialpackaging.com/,http://vistaindustrialpackaging.com/about/locations/,http://vistaindustrialpackaging.com/about/,http://vistaindustrialpackaging.com/about/careers/,http://vistaindustrialpackaging.com/contact/;RefWebSites:https://www.dnb.com/business-directory/company-profiles.vista_industrial_packaging_llc.6e9124d765a161e80870588c7e31f35d.html,https://www.linkedin.com/company/vista-industrial-packaging-inc.,https://www.bloomberg.com/profile/company/0444874D:US,https://www.buzzfile.com/business/Vista-Packaging.And.Logistics-800-454-6117,https://safer.fmcsa.dot.gov/query.asp%3Fsearchtype%3DANY%26query_type%3DqueryCarrierSnapshot%26query_param%3DUSDOT%26query_string%3D1266203,https://www.usaopps.com/government_contractors/contractor-5857470-Vista-Industrial-Packagin.htm,https://www.governmentcontracts.us/government-contractors/company-BSG2410390-vista-industrial-packaging-Columbus-OH.htm</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.dnb.com/business-directory/company-profiles.ss_quality_meats_llc.85c49de5f98ec75b6d91744a443e8fab.html,https://www.bloomberg.com/profile/company/0397379D:US,https://www.fsis.usda.gov/inspection/fsis-inspected-establishments/ss-quality-meats,https://www.dandb.com/businessdirectory/ssqualitymeatsllc-emporia-ks-1457547.html,https://www.kansasbids.us/kansas-contractors/contractor-5427814-S-S-QUALITY-MEATS-LLC.htm,https://www.governmentcontracts.us/government-contractors/company-BSG1980948-s-s-quality-Emporia-KS.htm,https://www.buzzfile.com/business/Fanestil-Meats-620-342-6354,https://opencorporates.com/companies/us_ks/2501294,https://bbs.fobshanghai.com/company/16520v2i3vvm098.html,https://www.usaopps.com/government_contractors/contractor-5427814-S-S-QUALITY-MEATS-LLC.htm</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.diamonddisplaygroup.com/;RefWebSites:https://www.linkedin.com/company/diamond-display-group,https://www.crunchbase.com/organization/diamond-display-group,http://ddg-corp.com/,https://www.bloomberg.com/profile/company/0443132D:US,https://www.zoominfo.com/c/diamond-display-group-inc/347571666,https://mrcheckout.net/diamond-display-group/,https://www.mapquest.com/us/texas/diamond-display-group-inc-369509238,https://yellow.place/en/diamond-display-group-plano-usa</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.gdp.com/,https://www.linkedin.com/company/gordon-document-products,https://www.linkedin.com/in/john-c-gordon-88665a11,https://www.crunchbase.com/organization/gordon-document-products,https://www.dnb.com/business-directory/company-profiles.gordon_document_products_inc.7910b4497fcb47c023ff707b2b541d2e.html,https://www.zoominfo.com/c/gordon-document-products-inc/50075037,https://www.bbb.org/us/ga/marietta/profile/copier/gordon-document-products-inc-0443-4190,https://www.bloomberg.com/profile/company/0004077D:US,https://www.glassdoor.co.in/Overview/Working-at-Gordon-Document-Products-EI_IE337525.11,35.htm,https://www.facebook.com/GordonDocumentProducts/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.dnb.com/business-directory/company-profiles.luecke_distributing_co_inc.b6b62ef53651f15c8c1810abb131ddce.html,https://www.linkedin.com/company/luecke-distributing-co-inc,https://www.bloomberg.com/profile/company/0405278D:US,https://www.dandb.com/businessdirectory/lueckedistributingco.inc.-poplarbluff-mo-8846504.html,https://start.cortera.com/company/research/k3p1rss1k/luecke-distributing-co-inc/,https://opencorporates.com/companies/us_mo/00171213,https://www.b2byellowpages.com/company-information/46701165-luecke-distributing-co-inc.html,https://foursquare.com/v/luecke-distributing-company/4e692d651838f93d2c8d3c5a,https://www.buzzfile.com/business/Luecke-Distributing-Co.,-Inc.-573-785-1451</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.bobrichardsjewelers.com/;RefWebSites:https://www.linkedin.com/in/robertdrichards,https://www.crunchbase.com/person/robert-richards,https://twitter.com/bob_richards,https://www.bloomberg.com/profile/person/17233602,https://www.youtube.com/watch%3Fv%3D2ca874kxzak,https://www.dnb.com/business-directory/company-profiles.bob_richards_automotive_llc.e92a071d6c2072377ae75f51e4611b58.html,https://www.facebook.com/BobRichardsJewelersTN/,https://www.capitalone.com/cars/dealership/Beech-Island-SC/Bob-Richards-Inc/35046</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://carbon38.com/,https://carbon38.com/collections/leggings,https://carbon38.com/collections/sale,https://carbon38.com/collections/shop-all,https://carbon38.com/collections/new-arrivals;RefWebSites:https://www.linkedin.com/company/carbon38,https://www.crunchbase.com/organization/carbon38,https://www.bloomberg.com/profile/company/1500596D:US,https://www.dnb.com/business-directory/company-profiles.carbon_38_inc.8295174ac0d923f964475eb96038341a.html,https://www.zoominfo.com/c/carbon38/358152384,https://www.instagram.com/carbon38/%3Fhl%3Den,https://www.facebook.com/Carbon38/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://srsdistribution.com/en/markets/our-brands/louis-t.-ollesheimer--son/,https://www.linkedin.com/company/louis-t-ollesheimer-%26-son,https://www.facebook.com/LTOMadisonHeights/,https://www.dnb.com/business-directory/company-profiles.louis_t_ollesheimer__son_inc.cb51c58f3cb4aedb.html,https://www.mdm.com/news/operations/mergers-acquisitions/srs-distribution-acquires-louis-t-ollesheimer-son/,https://www.zoominfo.com/c/louis-t-ollesheimer-son-inc/70765124,https://lbmjournal.com/srs-distribution-acquires-louis-t-ollesheimer-son-inc/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://albrechtinc.com/,https://albrechtinc.com/,https://albrechtinc.com/contact/,https://albrechtinc.com/available-retail-property/,https://www.albrechtsolutions.com/pages/home/index.html;RefWebSites:https://www.linkedin.com/company/albrecht-incorporated,https://www.linkedin.com/in/joe-albrecht-68306b4,https://www.zoominfo.com/c/albrecht-inc/3101177,https://www.dnb.com/business-directory/company-profiles.albrecht_inc.54f4ba2cc8cfcdd71110edb98e5c9b3a.html,https://www.dnb.com/business-directory/company-profiles.albrecht_inc.177b368eda1756cf6d639d774b47e643.html,https://www.crunchbase.com/organization/albrecht-incorporated,https://www.downtownakron.com/go/albrecht-incorporated</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.cherryhillautosales.net/;RefWebSites:https://www.dnb.com/business-directory/company-profiles.cherry_hill_auto_inc.4c92ea0128a16559ae5ce34b17e9299d.html,https://www.bloomberg.com/profile/company/6746532Z:US,https://www.facebook.com/cherryhillauto/,https://www.manta.com/c/mmf8r4j/cherry-hill-auto-inc,https://www.yelp.com/biz/cherry-hill-auto-sales-cherry-hill-2,https://www.buzzfile.com/business/Cherry-Hill-Volvo-856-665-4050</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.regency-mgmt.com/,https://www.linkedin.com/company/regency-hotel-management,https://www.dnb.com/business-directory/company-profiles.regency_hotel_management_limited.d5cb0bcf2ced62feb626a8365963d7f8.html,https://www.zoominfo.com/c/regency-hotel-management-inc/98878278,https://pitchbook.com/profiles/company/144991-18,https://www.bloomberg.com/profile/company/0597814D:US,https://find-and-update.company-information.service.gov.uk/company/08573411</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://microdatasys.com/,https://www.linkedin.com/company/mds-micro-data-systems,https://www.crunchbase.com/organization/micro-data-systems,https://www.facebook.com/microdatasys/,https://www.dnb.com/business-directory/company-profiles.micro-data_systems_inc.21f74aeb58faa945cf7ff1a5648e4dc9.html,https://microdata.com.ph/,https://www.glassdoor.co.in/Overview/Working-at-Micro-Data-Systems-EI_IE362131.11,29.htm,https://www.zoominfo.com/c/micro-data-systems-inc/68780900,https://www.microd.com/</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:http://www.calcoastcreditservice.com/,http://www.calcoastcreditservice.com/;RefWebSites:https://www.linkedin.com/company/cal-coast-credit-service,https://www.crunchbase.com/organization/cal-coast-credit-service-inc,https://www.yelp.com/biz/cal-coast-credit-service-santa-rosa-6,https://www.bbb.org/us/ca/santa-rosa/profile/collections-agencies/cal-coast-credit-service-inc-1116-12891,https://www.suethecollector.com/cal-coast-credit-service-inc/,https://www.dnb.com/business-directory/company-profiles.cal_coast_credit_service_inc.12fab6ffcabbd2567d64e2dfa742812e.html,https://www.zoominfo.com/c/cal-coast-credit-service-inc/39652956,https://www.visualvisitor.com/companies/3464991/cal-coast-credit-service-inc.,https://stopcollections.org/debt-collection-agencies-in-united-states/cal-coast-credit-service</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.buzzballz.com/,https://www.buzzballz.com/about-us/,https://www.buzzballz.com/products/,https://www.buzzballz.com/contact/,https://www.buzzballz.com/store-locator/;RefWebSites:https://www.linkedin.com/company/buzzballz,https://www.crunchbase.com/organization/buzzballz,https://www.zoominfo.com/c/buzzballz-llc/394959213,https://www.pinterest.com/pin/243757398561192982/,https://www.iwsc.net/company/profile/1673/buzzballz-llc,https://www.dnb.com/business-directory/company-profiles.buzzballz_llc.eff0d2f2e7cf303622449912366d416f.html</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.executeam.com/,http://executeamresources.com/,https://www.executeam.com/;RefWebSites:https://www.linkedin.com/company/executeam,https://www.crunchbase.com/organization/executeam,https://www.dnb.com/business-directory/company-profiles.executeam_corporation.63d472f1cfc50f84fe2d11e564d403be.html,https://www.zoominfo.com/c/executeam-staffing/18219610,https://www.glassdoor.co.in/Overview/Working-at-ExecuTeam-Staffing-EI_IE956015.11,29.htm,https://www.bloomberg.com/profile/company/0831021D:US,https://www.datanyze.com/companies/executeam-staffing/18219610,https://pitchbook.com/profiles/company/128924-20</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://bestcapfunding.com/,https://www.linkedin.com/company/best-capital-fundingcorporate,https://www.linkedin.com/in/mike-yates-4919161b,https://www.bestcaprancho.com/,https://www.crunchbase.com/organization/best-capital-funding,https://www.dnb.com/business-directory/company-profiles.best_capital_funding.2af2f617369dd0e964dc3cd56e87a178.html,https://www.zoominfo.com/c/best-capital-funding/365428732,http://bestcapfunding.com.php72-37.lan3-1.websitetestlink.com/about-us,https://entp.hud.gov/sfnw/public/lend_dba_info.cfm%3FRequestTimeout%3D500%26lendlist%3DBEST%2520CAPITAL%2520FUNDING%26lender_type%3Dt2,https://www.bbb.org/us/ca/chatsworth/profile/mortgage-banker/best-capital-funding-1216-100118268</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.dnb.com/business-directory/company-profiles.bema_electronic_manufacturing_inc.41252f45f045f3daf25b3b8f77d010d7.html,https://www.bloomberg.com/profile/company/4931528Z:US</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.linkedin.com/company/magnolia-river-services-inc,https://www.dnb.com/business-directory/company-profiles.magnolia_river_services_inc.06568b8ab80f724b3f2b389f557ddb4e.html,https://www.esri.com/partners/magnolia-river-servi-a2T70000000TNYHEA4,https://www.bloomberg.com/profile/company/0353629D:US</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:http://cognitivemedicalsystems.com/,https://cognitivemedicalsystems.com/,https://cognitivemedicalsystems.com/careers/,https://cognitivemedicalsystems.com/about/;RefWebSites:https://www.linkedin.com/company/cognitivemedicalsystems,https://www.crunchbase.com/organization/cognitive-medical-systems,https://www.zoominfo.com/c/cognitive-medical-systems-inc/368366708,https://www.glassdoor.co.in/Overview/Working-at-Cognitive-Medical-Systems-EI_IE957268.11,36.htm,https://govtribe.com/vendors/cognitive-medical-systems-inc-dot-62v66,https://www.bloomberg.com/profile/company/0833152D:US,https://www.inc.com/profile/cognitive-medical-systems,https://www.visualvisitor.com/companies/3119382/cognitive-medical-systems-inc.</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.linkedin.com/company/distilled-resources-inc-,https://waytogoidaho.com/about/,https://www.dnb.com/business-directory/company-profiles.distilled_resources_inc.d4605dcb5cf7f451.html,https://www.instagram.com/distilledresources/%3Fhl%3Den,https://www.zoominfo.com/c/distilled-resources-inc/41487120,https://rocketreach.co/distilled-resources-inc-profile_b5e10e96f42e6a0f,https://www.visualvisitor.com/companies/3596958/distilled-resources-inc.,https://www.konaequity.com/company/distilled-resources-inc-4391315418/,https://www.industrynet.com/listing/478573/distilled-resources-inc,https://www.mapquest.com/us/idaho/distilled-resources-inc-10197498</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.medefilinc.com/,https://www.medefilinc.com/products/,https://www.medefilinc.com/about-us/,https://www.medefilinc.com/contact/,https://www.medefilinc.com/careers/,https://www.medefilinc.com/products/normal-saline-iv-flush-syringes/,https://www.medefilinc.com/about-us/leadership/,http://www.medefilinc.com/;RefWebSites:https://www.linkedin.com/company/medefil,https://www.crunchbase.com/organization/medefil,https://www.dnb.com/business-directory/company-profiles.medefil_inc.4f685de181fd628d7d661e5938eaa74c.html,https://www.accessdata.fda.gov/scripts/cdrh/cfdocs/cfMAUDE/detail.cfm%3Fmdrfoi__id%3D2721120,https://www.bloomberg.com/profile/company/0991857D:US,https://www.govinfo.gov/app/details/USCOURTS-ilnd-1_13-cv-04773</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:;RefWebSites:https://www.lpmhci.com/,https://www.dnb.com/business-directory/company-profiles.lpm_holding_company_inc.7a9e63645ca6f984.html,https://www.glassdoor.co.in/Overview/Working-at-LPM-Holding-Company-EI_IE367835.11,30.htm,https://craft.co/lpm-holding-company,https://rocketreach.co/lpm-holding-company-inc-profile_b5d848a6f42e5383,https://www.bbb.org/us/ma/maynard/profile/food-service-management/lpm-holding-company-inc-0021-3010</t>
+  </si>
+  <si>
+    <t>CompanyWebSites:https://www.cherryhillautosales.net/;RefWebSites:https://www.dnb.com/business-directory/company-profiles.cherry_hill_auto_inc.4c92ea0128a16559ae5ce34b17e9299d.html,https://www.bloomberg.com/profile/company/6746532Z:US,https://www.facebook.com/cherryhillauto/,https://www.manta.com/c/mmf8r4j/cherry-hill-auto-inc,https://www.yelp.com/biz/cherry-hill-auto-sales-cherry-hill-2,https://www.helpmecovid.com/us/4564373_cherry-hill-auto-sales</t>
   </si>
   <si>
     <t>[[], [], [], [], [], [], [], [], [], [], []]</t>
   </si>
   <si>
     <t>[[], [], [], [], [], [], [], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], [], [], [], [], [], [], [], [], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], [], [], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], [], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], [], [], [], [], ['women'], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], []]</t>
+  </si>
+  <si>
+    <t>[['women'], ['women'], ['women'], [], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], [], [], [], [], [], [], [], [], [], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], [], [], [], [], [], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], [], [], [], [], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], [], [], [], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], [], [], [], [], [], [], [], [], [], [], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], [], [], [], [], [], [], [], [], [], [], [], [], [], []]</t>
+  </si>
+  <si>
+    <t>[[], [], [], ['women'], [], [], [], [], []]</t>
   </si>
 </sst>
 </file>
@@ -482,7 +1580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,16 +1647,16 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="G2">
         <v>75235</v>
@@ -567,28 +1665,28 @@
         <v>2146380500</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>362</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>362</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>388</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -599,16 +1697,16 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="G3">
         <v>95247</v>
@@ -617,28 +1715,2271 @@
         <v>9258258400</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N3" t="s">
+        <v>363</v>
+      </c>
+      <c r="O3" t="s">
+        <v>363</v>
+      </c>
+      <c r="P3" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>783598485</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4">
+        <v>77057</v>
+      </c>
+      <c r="H4">
+        <v>7139526760</v>
+      </c>
+      <c r="I4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>313</v>
+      </c>
+      <c r="N4" t="s">
+        <v>313</v>
+      </c>
+      <c r="O4" t="s">
+        <v>379</v>
+      </c>
+      <c r="P4" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>58168600</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5">
+        <v>88210</v>
+      </c>
+      <c r="H5">
+        <v>5757482093</v>
+      </c>
+      <c r="I5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N5" t="s">
+        <v>314</v>
+      </c>
+      <c r="O5" t="s">
+        <v>314</v>
+      </c>
+      <c r="P5" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>20825064</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6">
+        <v>91311</v>
+      </c>
+      <c r="H6">
+        <v>8188872779</v>
+      </c>
+      <c r="I6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M6" t="s">
+        <v>315</v>
+      </c>
+      <c r="N6" t="s">
+        <v>364</v>
+      </c>
+      <c r="O6" t="s">
+        <v>380</v>
+      </c>
+      <c r="P6" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>147215909</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7">
+        <v>43228</v>
+      </c>
+      <c r="H7">
+        <v>8004546117</v>
+      </c>
+      <c r="I7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M7" t="s">
+        <v>316</v>
+      </c>
+      <c r="N7" t="s">
+        <v>365</v>
+      </c>
+      <c r="O7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>147470707</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8">
+        <v>94538</v>
+      </c>
+      <c r="H8">
+        <v>5104907770</v>
+      </c>
+      <c r="I8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M8" t="s">
+        <v>317</v>
+      </c>
+      <c r="N8" t="s">
+        <v>317</v>
+      </c>
+      <c r="O8" t="s">
+        <v>381</v>
+      </c>
+      <c r="P8" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>7150212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9">
+        <v>66801</v>
+      </c>
+      <c r="H9">
+        <v>6203426354</v>
+      </c>
+      <c r="I9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" t="s">
+        <v>285</v>
+      </c>
+      <c r="M9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N9" t="s">
+        <v>366</v>
+      </c>
+      <c r="O9" t="s">
+        <v>366</v>
+      </c>
+      <c r="P9" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>135681992</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10">
+        <v>75074</v>
+      </c>
+      <c r="H10">
+        <v>9726363665</v>
+      </c>
+      <c r="I10" t="s">
+        <v>239</v>
+      </c>
+      <c r="M10" t="s">
+        <v>319</v>
+      </c>
+      <c r="N10" t="s">
+        <v>367</v>
+      </c>
+      <c r="O10" t="s">
+        <v>319</v>
+      </c>
+      <c r="P10" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>183113885</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11">
+        <v>30080</v>
+      </c>
+      <c r="H11">
+        <v>7705638400</v>
+      </c>
+      <c r="I11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" t="s">
+        <v>286</v>
+      </c>
+      <c r="M11" t="s">
+        <v>320</v>
+      </c>
+      <c r="N11" t="s">
+        <v>368</v>
+      </c>
+      <c r="O11" t="s">
+        <v>368</v>
+      </c>
+      <c r="P11" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>30986194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12">
+        <v>94158</v>
+      </c>
+      <c r="H12">
+        <v>4154953191</v>
+      </c>
+      <c r="I12" t="s">
+        <v>241</v>
+      </c>
+      <c r="M12" t="s">
+        <v>321</v>
+      </c>
+      <c r="N12" t="s">
+        <v>321</v>
+      </c>
+      <c r="O12" t="s">
+        <v>321</v>
+      </c>
+      <c r="P12" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>790986702</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13">
+        <v>33145</v>
+      </c>
+      <c r="H13">
+        <v>3054420977</v>
+      </c>
+      <c r="I13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" t="s">
+        <v>287</v>
+      </c>
+      <c r="M13" t="s">
+        <v>322</v>
+      </c>
+      <c r="N13" t="s">
+        <v>322</v>
+      </c>
+      <c r="O13" t="s">
+        <v>322</v>
+      </c>
+      <c r="P13" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>121370720</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14">
+        <v>95112</v>
+      </c>
+      <c r="H14">
+        <v>4082757165</v>
+      </c>
+      <c r="I14" t="s">
+        <v>243</v>
+      </c>
+      <c r="M14" t="s">
+        <v>323</v>
+      </c>
+      <c r="N14" t="s">
+        <v>323</v>
+      </c>
+      <c r="O14" t="s">
+        <v>323</v>
+      </c>
+      <c r="P14" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>7147536</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15">
+        <v>35601</v>
+      </c>
+      <c r="H15">
+        <v>2567739420</v>
+      </c>
+      <c r="I15" t="s">
+        <v>244</v>
+      </c>
+      <c r="M15" t="s">
+        <v>324</v>
+      </c>
+      <c r="N15" t="s">
+        <v>324</v>
+      </c>
+      <c r="O15" t="s">
+        <v>382</v>
+      </c>
+      <c r="P15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>963396366</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16">
+        <v>92121</v>
+      </c>
+      <c r="H16">
+        <v>8585094949</v>
+      </c>
+      <c r="I16" t="s">
+        <v>245</v>
+      </c>
+      <c r="J16" t="s">
+        <v>288</v>
+      </c>
+      <c r="M16" t="s">
+        <v>325</v>
+      </c>
+      <c r="N16" t="s">
+        <v>325</v>
+      </c>
+      <c r="O16" t="s">
+        <v>383</v>
+      </c>
+      <c r="P16" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>800352796</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="N3" t="s">
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17">
+        <v>12110</v>
+      </c>
+      <c r="H17">
+        <v>5188696227</v>
+      </c>
+      <c r="I17" t="s">
+        <v>246</v>
+      </c>
+      <c r="J17" t="s">
+        <v>289</v>
+      </c>
+      <c r="M17" t="s">
+        <v>326</v>
+      </c>
+      <c r="N17" t="s">
+        <v>326</v>
+      </c>
+      <c r="O17" t="s">
+        <v>326</v>
+      </c>
+      <c r="P17" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>21680660</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18">
+        <v>95008</v>
+      </c>
+      <c r="H18">
+        <v>4085223600</v>
+      </c>
+      <c r="I18" t="s">
+        <v>247</v>
+      </c>
+      <c r="J18" t="s">
+        <v>290</v>
+      </c>
+      <c r="M18" t="s">
+        <v>327</v>
+      </c>
+      <c r="N18" t="s">
+        <v>327</v>
+      </c>
+      <c r="O18" t="s">
+        <v>327</v>
+      </c>
+      <c r="P18" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>29951886</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19">
+        <v>63901</v>
+      </c>
+      <c r="H19">
+        <v>5737851451</v>
+      </c>
+      <c r="I19" t="s">
+        <v>248</v>
+      </c>
+      <c r="M19" t="s">
+        <v>328</v>
+      </c>
+      <c r="N19" t="s">
+        <v>369</v>
+      </c>
+      <c r="O19" t="s">
+        <v>369</v>
+      </c>
+      <c r="P19" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>57302770</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20">
+        <v>29842</v>
+      </c>
+      <c r="H20">
+        <v>8662607859</v>
+      </c>
+      <c r="I20" t="s">
+        <v>249</v>
+      </c>
+      <c r="M20" t="s">
+        <v>329</v>
+      </c>
+      <c r="N20" t="s">
+        <v>370</v>
+      </c>
+      <c r="O20" t="s">
+        <v>329</v>
+      </c>
+      <c r="P20" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>32310116</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" t="s">
-        <v>36</v>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21">
+        <v>90232</v>
+      </c>
+      <c r="H21">
+        <v>8887235838</v>
+      </c>
+      <c r="I21" t="s">
+        <v>250</v>
+      </c>
+      <c r="M21" t="s">
+        <v>330</v>
+      </c>
+      <c r="N21" t="s">
+        <v>371</v>
+      </c>
+      <c r="O21" t="s">
+        <v>371</v>
+      </c>
+      <c r="P21" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>17028713</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22">
+        <v>48071</v>
+      </c>
+      <c r="H22">
+        <v>2485443900</v>
+      </c>
+      <c r="I22" t="s">
+        <v>251</v>
+      </c>
+      <c r="J22" t="s">
+        <v>291</v>
+      </c>
+      <c r="M22" t="s">
+        <v>331</v>
+      </c>
+      <c r="N22" t="s">
+        <v>372</v>
+      </c>
+      <c r="O22" t="s">
+        <v>331</v>
+      </c>
+      <c r="P22" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>192959851</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23">
+        <v>2494</v>
+      </c>
+      <c r="H23">
+        <v>6177952872</v>
+      </c>
+      <c r="I23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M23" t="s">
+        <v>332</v>
+      </c>
+      <c r="N23" t="s">
+        <v>332</v>
+      </c>
+      <c r="O23" t="s">
+        <v>332</v>
+      </c>
+      <c r="P23" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>48760206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24">
+        <v>45150</v>
+      </c>
+      <c r="H24">
+        <v>5135769900</v>
+      </c>
+      <c r="I24" t="s">
+        <v>253</v>
+      </c>
+      <c r="J24" t="s">
+        <v>292</v>
+      </c>
+      <c r="M24" t="s">
+        <v>333</v>
+      </c>
+      <c r="N24" t="s">
+        <v>373</v>
+      </c>
+      <c r="O24" t="s">
+        <v>373</v>
+      </c>
+      <c r="P24" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>44517980</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25">
+        <v>43212</v>
+      </c>
+      <c r="H25">
+        <v>6144300020</v>
+      </c>
+      <c r="I25" t="s">
+        <v>254</v>
+      </c>
+      <c r="J25" t="s">
+        <v>293</v>
+      </c>
+      <c r="M25" t="s">
+        <v>334</v>
+      </c>
+      <c r="N25" t="s">
+        <v>334</v>
+      </c>
+      <c r="O25" t="s">
+        <v>334</v>
+      </c>
+      <c r="P25" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>80848577</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26">
+        <v>89135</v>
+      </c>
+      <c r="H26">
+        <v>2133283130</v>
+      </c>
+      <c r="I26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="s">
+        <v>335</v>
+      </c>
+      <c r="N26" t="s">
+        <v>335</v>
+      </c>
+      <c r="O26" t="s">
+        <v>335</v>
+      </c>
+      <c r="P26" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>46274452</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27">
+        <v>77901</v>
+      </c>
+      <c r="H27">
+        <v>3615756311</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>294</v>
+      </c>
+      <c r="M27" t="s">
+        <v>336</v>
+      </c>
+      <c r="N27" t="s">
+        <v>336</v>
+      </c>
+      <c r="O27" t="s">
+        <v>336</v>
+      </c>
+      <c r="P27" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>806488201</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28">
+        <v>35222</v>
+      </c>
+      <c r="H28">
+        <v>2053266660</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="M28" t="s">
+        <v>337</v>
+      </c>
+      <c r="N28" t="s">
+        <v>337</v>
+      </c>
+      <c r="O28" t="s">
+        <v>337</v>
+      </c>
+      <c r="P28" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>20356179</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29">
+        <v>83442</v>
+      </c>
+      <c r="H29">
+        <v>2087540042</v>
+      </c>
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" t="s">
+        <v>295</v>
+      </c>
+      <c r="M29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N29" t="s">
+        <v>338</v>
+      </c>
+      <c r="O29" t="s">
+        <v>384</v>
+      </c>
+      <c r="P29" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>81069898</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30">
+        <v>85621</v>
+      </c>
+      <c r="H30">
+        <v>5202879711</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="s">
+        <v>339</v>
+      </c>
+      <c r="N30" t="s">
+        <v>339</v>
+      </c>
+      <c r="O30" t="s">
+        <v>339</v>
+      </c>
+      <c r="P30" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>16448669</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31">
+        <v>60139</v>
+      </c>
+      <c r="H31">
+        <v>6306824600</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="M31" t="s">
+        <v>340</v>
+      </c>
+      <c r="N31" t="s">
+        <v>340</v>
+      </c>
+      <c r="O31" t="s">
+        <v>385</v>
+      </c>
+      <c r="P31" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>19477488</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32">
+        <v>1740</v>
+      </c>
+      <c r="H32">
+        <v>9788970660</v>
+      </c>
+      <c r="I32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" t="s">
+        <v>341</v>
+      </c>
+      <c r="N32" t="s">
+        <v>341</v>
+      </c>
+      <c r="O32" t="s">
+        <v>386</v>
+      </c>
+      <c r="P32" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>946901535</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33">
+        <v>89139</v>
+      </c>
+      <c r="H33">
+        <v>7023610311</v>
+      </c>
+      <c r="I33" t="s">
+        <v>262</v>
+      </c>
+      <c r="M33" t="s">
+        <v>342</v>
+      </c>
+      <c r="N33" t="s">
+        <v>342</v>
+      </c>
+      <c r="O33" t="s">
+        <v>342</v>
+      </c>
+      <c r="P33" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>152161337</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34">
+        <v>1915</v>
+      </c>
+      <c r="H34">
+        <v>2017572512</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="M34" t="s">
+        <v>343</v>
+      </c>
+      <c r="N34" t="s">
+        <v>343</v>
+      </c>
+      <c r="O34" t="s">
+        <v>343</v>
+      </c>
+      <c r="P34" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>79938555</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35">
+        <v>98826</v>
+      </c>
+      <c r="H35">
+        <v>5102929231</v>
+      </c>
+      <c r="I35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" t="s">
+        <v>344</v>
+      </c>
+      <c r="N35" t="s">
+        <v>344</v>
+      </c>
+      <c r="O35" t="s">
+        <v>344</v>
+      </c>
+      <c r="P35" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>171900017</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36">
+        <v>94403</v>
+      </c>
+      <c r="H36">
+        <v>6509613422</v>
+      </c>
+      <c r="I36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J36" t="s">
+        <v>298</v>
+      </c>
+      <c r="M36" t="s">
+        <v>345</v>
+      </c>
+      <c r="N36" t="s">
+        <v>345</v>
+      </c>
+      <c r="O36" t="s">
+        <v>345</v>
+      </c>
+      <c r="P36" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>43961903</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37">
+        <v>8002</v>
+      </c>
+      <c r="H37">
+        <v>8566654050</v>
+      </c>
+      <c r="I37" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N37" t="s">
+        <v>374</v>
+      </c>
+      <c r="O37" t="s">
+        <v>387</v>
+      </c>
+      <c r="P37" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>9976288</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38">
+        <v>20002</v>
+      </c>
+      <c r="H38">
+        <v>2026188144</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>299</v>
+      </c>
+      <c r="M38" t="s">
+        <v>347</v>
+      </c>
+      <c r="N38" t="s">
+        <v>347</v>
+      </c>
+      <c r="O38" t="s">
+        <v>347</v>
+      </c>
+      <c r="P38" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>797048667</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39">
+        <v>1886</v>
+      </c>
+      <c r="H39">
+        <v>9786928200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>268</v>
+      </c>
+      <c r="J39" t="s">
+        <v>300</v>
+      </c>
+      <c r="M39" t="s">
+        <v>348</v>
+      </c>
+      <c r="N39" t="s">
+        <v>375</v>
+      </c>
+      <c r="O39" t="s">
+        <v>375</v>
+      </c>
+      <c r="P39" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>790868678</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40">
+        <v>7733</v>
+      </c>
+      <c r="H40">
+        <v>7327720200</v>
+      </c>
+      <c r="I40" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" t="s">
+        <v>301</v>
+      </c>
+      <c r="M40" t="s">
+        <v>349</v>
+      </c>
+      <c r="N40" t="s">
+        <v>376</v>
+      </c>
+      <c r="O40" t="s">
+        <v>349</v>
+      </c>
+      <c r="P40" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>603943452</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41">
+        <v>10605</v>
+      </c>
+      <c r="H41">
+        <v>9142502400</v>
+      </c>
+      <c r="I41" t="s">
+        <v>270</v>
+      </c>
+      <c r="J41" t="s">
+        <v>302</v>
+      </c>
+      <c r="M41" t="s">
+        <v>350</v>
+      </c>
+      <c r="N41" t="s">
+        <v>350</v>
+      </c>
+      <c r="O41" t="s">
+        <v>350</v>
+      </c>
+      <c r="P41" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>58448358</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42">
+        <v>75220</v>
+      </c>
+      <c r="H42">
+        <v>2143503990</v>
+      </c>
+      <c r="I42" t="s">
+        <v>271</v>
+      </c>
+      <c r="J42" t="s">
+        <v>303</v>
+      </c>
+      <c r="M42" t="s">
+        <v>351</v>
+      </c>
+      <c r="N42" t="s">
+        <v>351</v>
+      </c>
+      <c r="O42" t="s">
+        <v>351</v>
+      </c>
+      <c r="P42" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>80243260</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" t="s">
+        <v>228</v>
+      </c>
+      <c r="G43">
+        <v>19124</v>
+      </c>
+      <c r="H43">
+        <v>6102320112</v>
+      </c>
+      <c r="I43" t="s">
+        <v>272</v>
+      </c>
+      <c r="J43" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" t="s">
+        <v>352</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>352</v>
+      </c>
+      <c r="P43" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>827455747</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44">
+        <v>10801</v>
+      </c>
+      <c r="H44">
+        <v>9146330200</v>
+      </c>
+      <c r="I44" t="s">
+        <v>273</v>
+      </c>
+      <c r="M44" t="s">
+        <v>353</v>
+      </c>
+      <c r="N44" t="s">
+        <v>353</v>
+      </c>
+      <c r="O44" t="s">
+        <v>353</v>
+      </c>
+      <c r="P44" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>74645821</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45">
+        <v>95403</v>
+      </c>
+      <c r="H45">
+        <v>7075426495</v>
+      </c>
+      <c r="J45" t="s">
+        <v>305</v>
+      </c>
+      <c r="M45" t="s">
+        <v>354</v>
+      </c>
+      <c r="N45" t="s">
+        <v>377</v>
+      </c>
+      <c r="O45" t="s">
+        <v>354</v>
+      </c>
+      <c r="P45" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>88819789</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46">
+        <v>1702</v>
+      </c>
+      <c r="H46">
+        <v>7742040700</v>
+      </c>
+      <c r="I46" t="s">
+        <v>274</v>
+      </c>
+      <c r="J46" t="s">
+        <v>306</v>
+      </c>
+      <c r="M46" t="s">
+        <v>355</v>
+      </c>
+      <c r="N46" t="s">
+        <v>355</v>
+      </c>
+      <c r="O46" t="s">
+        <v>355</v>
+      </c>
+      <c r="P46" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>78805217</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47">
+        <v>4011</v>
+      </c>
+      <c r="H47">
+        <v>2076074433</v>
+      </c>
+      <c r="I47" t="s">
+        <v>275</v>
+      </c>
+      <c r="J47" t="s">
+        <v>307</v>
+      </c>
+      <c r="M47" t="s">
+        <v>356</v>
+      </c>
+      <c r="N47" t="s">
+        <v>356</v>
+      </c>
+      <c r="O47" t="s">
+        <v>356</v>
+      </c>
+      <c r="P47" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>25351192</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" t="s">
+        <v>208</v>
+      </c>
+      <c r="G48">
+        <v>75006</v>
+      </c>
+      <c r="H48">
+        <v>9722423777</v>
+      </c>
+      <c r="I48" t="s">
+        <v>276</v>
+      </c>
+      <c r="M48" t="s">
+        <v>357</v>
+      </c>
+      <c r="N48" t="s">
+        <v>378</v>
+      </c>
+      <c r="O48" t="s">
+        <v>357</v>
+      </c>
+      <c r="P48" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>21748832</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" t="s">
+        <v>230</v>
+      </c>
+      <c r="G49">
+        <v>27517</v>
+      </c>
+      <c r="H49">
+        <v>9199692728</v>
+      </c>
+      <c r="I49" t="s">
+        <v>277</v>
+      </c>
+      <c r="M49" t="s">
+        <v>358</v>
+      </c>
+      <c r="N49" t="s">
+        <v>358</v>
+      </c>
+      <c r="O49" t="s">
+        <v>358</v>
+      </c>
+      <c r="P49" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>79112366</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" t="s">
+        <v>211</v>
+      </c>
+      <c r="G50">
+        <v>45242</v>
+      </c>
+      <c r="H50">
+        <v>5139215040</v>
+      </c>
+      <c r="I50" t="s">
+        <v>278</v>
+      </c>
+      <c r="M50" t="s">
+        <v>359</v>
+      </c>
+      <c r="N50" t="s">
+        <v>359</v>
+      </c>
+      <c r="O50" t="s">
+        <v>359</v>
+      </c>
+      <c r="P50" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>121293039</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51">
+        <v>45202</v>
+      </c>
+      <c r="H51">
+        <v>5136211113</v>
+      </c>
+      <c r="I51" t="s">
+        <v>279</v>
+      </c>
+      <c r="J51" t="s">
+        <v>308</v>
+      </c>
+      <c r="M51" t="s">
+        <v>360</v>
+      </c>
+      <c r="N51" t="s">
+        <v>360</v>
+      </c>
+      <c r="O51" t="s">
+        <v>360</v>
+      </c>
+      <c r="P51" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>809228757</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52">
+        <v>21228</v>
+      </c>
+      <c r="H52">
+        <v>4106543790</v>
+      </c>
+      <c r="I52" t="s">
+        <v>280</v>
+      </c>
+      <c r="M52" t="s">
+        <v>361</v>
+      </c>
+      <c r="N52" t="s">
+        <v>361</v>
+      </c>
+      <c r="O52" t="s">
+        <v>361</v>
+      </c>
+      <c r="P52" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
